--- a/pro2.xlsx
+++ b/pro2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27978\Desktop\2025年电工杯竞赛赛题\B题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEAB4FC-D172-49ED-8DA8-8613E5C5A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B0602-C7DC-4498-84A7-C69C848AC433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="20160" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5290" yWindow="1040" windowWidth="20160" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>cy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>qt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,10 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +417,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -427,8 +437,11 @@
       <c r="E2" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -444,8 +457,11 @@
       <c r="E3" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -461,8 +477,11 @@
       <c r="E4" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -478,8 +497,11 @@
       <c r="E5" s="1">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -495,8 +517,11 @@
       <c r="E6" s="1">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -512,8 +537,11 @@
       <c r="E7" s="1">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -529,8 +557,11 @@
       <c r="E8" s="1">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -546,8 +577,11 @@
       <c r="E9" s="1">
         <v>0.374</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -563,8 +597,11 @@
       <c r="E10" s="1">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -580,8 +617,11 @@
       <c r="E11" s="1">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -597,8 +637,11 @@
       <c r="E12" s="1">
         <v>0.97199999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -614,8 +657,11 @@
       <c r="E13" s="1">
         <v>0.95199999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -631,8 +677,11 @@
       <c r="E14" s="1">
         <v>1.075</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -648,8 +697,11 @@
       <c r="E15" s="1">
         <v>0.69299999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F15" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -665,8 +717,11 @@
       <c r="E16" s="1">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -682,8 +737,11 @@
       <c r="E17" s="1">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -699,8 +757,11 @@
       <c r="E18" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -716,8 +777,11 @@
       <c r="E19" s="1">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -733,8 +797,11 @@
       <c r="E20" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -750,8 +817,11 @@
       <c r="E21" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -767,8 +837,11 @@
       <c r="E22" s="1">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -784,8 +857,11 @@
       <c r="E23" s="1">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F23" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -801,8 +877,11 @@
       <c r="E24" s="1">
         <v>0.46800000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -818,8 +897,11 @@
       <c r="E25" s="1">
         <v>0.67200000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F25" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -835,8 +917,11 @@
       <c r="E26" s="1">
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -852,8 +937,11 @@
       <c r="E27" s="1">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -869,8 +957,11 @@
       <c r="E28" s="1">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -886,8 +977,11 @@
       <c r="E29" s="1">
         <v>1.056</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F29" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -903,8 +997,11 @@
       <c r="E30" s="1">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F30" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -919,6 +1016,9 @@
       </c>
       <c r="E31" s="1">
         <v>0.42499999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
